--- a/doc/management/requisitos.xlsx
+++ b/doc/management/requisitos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainhoazapirain/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="15520" yWindow="0" windowWidth="13280" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,20 @@
   <definedNames>
     <definedName name="asdasd">Requisitos!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +103,33 @@
   </si>
   <si>
     <t xml:space="preserve">Un juego para dos jugadores, en modo 1 vs 1. Cada jugador controla un tanque, uno de color azul y el otro rojo. </t>
+  </si>
+  <si>
+    <t>Fecha Creación</t>
+  </si>
+  <si>
+    <t>Fecha Modificación</t>
+  </si>
+  <si>
+    <t>Autor Modificación</t>
+  </si>
+  <si>
+    <t>REQ_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente </t>
+  </si>
+  <si>
+    <t>La vista será compartida y el zoom se aumentando o reduciendose dependiendo de la distancia de los dos tanques</t>
+  </si>
+  <si>
+    <t>REQ_11</t>
+  </si>
+  <si>
+    <t>El juego tendrá música:
+- Música de fondo
+- Sonido de la explosión
+- Sonido de carga de disparo</t>
   </si>
 </sst>
 </file>
@@ -143,38 +183,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -182,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -223,7 +265,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,9 +335,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -322,9 +370,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -528,21 +576,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" activeCellId="1" sqref="C11 C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,8 +606,17 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -567,8 +627,13 @@
       <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="17">
+        <v>43164</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -579,8 +644,13 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="17">
+        <v>43164</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -591,8 +661,13 @@
       <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="17">
+        <v>43164</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -603,8 +678,13 @@
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="17">
+        <v>43164</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -615,8 +695,13 @@
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="17">
+        <v>43164</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -627,8 +712,13 @@
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="17">
+        <v>43164</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -639,8 +729,13 @@
       <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8" s="17">
+        <v>43164</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -651,8 +746,13 @@
       <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E9" s="17">
+        <v>43164</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -663,12 +763,45 @@
       <c r="D10" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="E10" s="17">
+        <v>43164</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="17">
+        <v>43188</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17">
+        <v>43188</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A20 B11:C11">
